--- a/regions_data/Surowce/pie_chart_data/Zużycie gazu ciekłego (bez pojazdów).xlsx
+++ b/regions_data/Surowce/pie_chart_data/Zużycie gazu ciekłego (bez pojazdów).xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Nazwa wycinka</t>
+  </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
   </si>
@@ -178,16 +181,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,21 +219,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="B1:R5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -274,172 +280,172 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>3</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="F2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="K2" s="2" t="n">
         <v>3</v>
       </c>
       <c r="L2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="O2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="P2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>4</v>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="G3" s="2" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="J3" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>27</v>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="O4" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="P4" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="Q4" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>4</v>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
@@ -448,42 +454,45 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="H5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="J5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="L5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="O5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>2</v>
       </c>
     </row>
